--- a/amk-main-public/vimuTKP.xlsx
+++ b/amk-main-public/vimuTKP.xlsx
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Промежуточные выключатели</t>
+  </si>
+  <si>
+    <t>Дата формирования  ТКП</t>
   </si>
 </sst>
 </file>
@@ -2446,8 +2449,8 @@
   </sheetPr>
   <dimension ref="A1:T204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="A45" sqref="A45:AT528" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="B31" sqref="B31" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2577,7 +2580,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" customHeight="1" ht="1">
+    <row r="6" customHeight="1" ht="0">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -2688,7 +2691,7 @@
       <c r="Q10" s="32"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" customHeight="1" ht="41" customFormat="1" s="3">
+    <row r="11" customHeight="1" ht="40" customFormat="1" s="3">
       <c r="A11" s="63" t="s">
         <v>8</v>
       </c>
@@ -3165,8 +3168,8 @@
       <c r="A31" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>43</v>
+      <c r="B31" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C31" s="88"/>
       <c r="D31" s="89"/>

--- a/amk-main-public/vimuTKP.xlsx
+++ b/amk-main-public/vimuTKP.xlsx
@@ -204,12 +204,24 @@
   <si>
     <t>Дата формирования  ТКП</t>
   </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Наименование блока управления</t>
+  </si>
+  <si>
+    <t>1)Базовый набор функций 2)Передача информации о положении выходного звена привода посредством токового сигнала (4–20 мА)  3)Передача текущего значения движущего момента на выходном звене привода посредством токового сигнала (4–20 мА).  4) Аналоговое управление приводом — прием от дистанционного пульта и отработка токового сигнала (4–20 мА) задания положения выходного звена привода с контролем наличия связи  5) Диагностирование отказов опциональных модулей.  6)Автоматический выбор активного интерфейса дистанционного управления.  /Дополнительная плата: 1)Базовый набор функций 2)Передача информации о положении выходного звена привода посредством токового сигнала (4–20 мА)  3)Передача текущего значения движущего момента на выходном звене привода посредством токового сигнала (4–20 мА).  4) Аналоговое управление приводом — прием от дистанционного пульта и отработка токового сигнала (4–20 мА) задания положения выходного звена привода с контролем наличия связи  5) Диагностирование отказов опциональных модулей.  6)Автоматический выбор активного интерфейса дистанционного управления.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +320,79 @@
       <color rgb="FF7F7F7F"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -358,7 +443,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -1388,6 +1473,531 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1404,7 +2014,7 @@
       <alignment/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2092,6 +2702,324 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="42" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="17" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="40" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="41" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="2" applyFill="1" borderId="73" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="2" applyFill="1" borderId="73" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="73" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="81" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="84" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="84" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="90" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="92" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="92" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="93" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="94" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="93" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="95" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="101" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="102" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="103" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="103" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="104" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="авто" xfId="1"/>
@@ -2127,7 +3055,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2152650" cy="1362075"/>
+    <xdr:ext cx="1971675" cy="1247775"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1"/>
@@ -2145,7 +3073,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="19050" y="38100"/>
-          <a:ext cx="2152650" cy="1362075"/>
+          <a:ext cx="1971675" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2449,8 +3377,8 @@
   </sheetPr>
   <dimension ref="A1:T204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="B31" sqref="B31" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="G18" sqref="G18:O18" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2472,7 +3400,7 @@
     <col min="15" max="15" width="14.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="0.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" style="8" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19" customWidth="1"/>
     <col min="20" max="20" width="37.140625" customWidth="1"/>
     <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
@@ -2497,9 +3425,6 @@
       <c r="O1" s="23"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="T1" s="9" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="2" customHeight="1" ht="18">
       <c r="A2" s="24"/>
@@ -2519,9 +3444,6 @@
       <c r="O2" s="23"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="T2" s="10" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="3" customHeight="1" ht="18">
       <c r="A3" s="24"/>
@@ -2603,860 +3525,878 @@
       <c r="A7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="213"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
     </row>
     <row r="8" customHeight="1" ht="21">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="214"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="2" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="2" t="s">
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
     </row>
     <row r="9" customHeight="1" ht="21">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
       <c r="R9" s="11"/>
     </row>
     <row r="10" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
+      <c r="B10" s="217"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" customHeight="1" ht="40" customFormat="1" s="3">
-      <c r="A11" s="63" t="s">
+    <row r="11" customHeight="1" ht="39" customFormat="1" s="3">
+      <c r="A11" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="219"/>
+      <c r="C11" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="58" t="s">
+      <c r="D11" s="221"/>
+      <c r="E11" s="221"/>
+      <c r="F11" s="221"/>
+      <c r="G11" s="220" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="40" t="s">
+      <c r="H11" s="222"/>
+      <c r="I11" s="221" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="39" t="s">
+      <c r="J11" s="222"/>
+      <c r="K11" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="39" t="s">
+      <c r="L11" s="221"/>
+      <c r="M11" s="219"/>
+      <c r="N11" s="220" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="41"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="O11" s="222"/>
+      <c r="P11" s="223"/>
+      <c r="Q11" s="223"/>
     </row>
     <row r="12" customHeight="1" ht="21">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
     </row>
     <row r="13" customHeight="1" ht="21">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="275" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="276" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="C13" s="292"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="293"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="293"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="293"/>
+      <c r="M13" s="293"/>
+      <c r="N13" s="293"/>
+      <c r="O13" s="294"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
     </row>
     <row r="14" customHeight="1" ht="21">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="297" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="298" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" customHeight="1" ht="21">
-      <c r="A15" s="96" t="s">
+      <c r="C14" s="299"/>
+      <c r="D14" s="299"/>
+      <c r="E14" s="299"/>
+      <c r="F14" s="299"/>
+      <c r="G14" s="299"/>
+      <c r="H14" s="299"/>
+      <c r="I14" s="299"/>
+      <c r="J14" s="299"/>
+      <c r="K14" s="299"/>
+      <c r="L14" s="299"/>
+      <c r="M14" s="299"/>
+      <c r="N14" s="299"/>
+      <c r="O14" s="299"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+    </row>
+    <row r="15" customHeight="1" ht="39">
+      <c r="A15" s="295" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="B15" s="296"/>
+      <c r="C15" s="296"/>
+      <c r="D15" s="296"/>
+      <c r="E15" s="296"/>
+      <c r="F15" s="296"/>
+      <c r="G15" s="296"/>
+      <c r="H15" s="296"/>
+      <c r="I15" s="296"/>
+      <c r="J15" s="296"/>
+      <c r="K15" s="296"/>
+      <c r="L15" s="296"/>
+      <c r="M15" s="296"/>
+      <c r="N15" s="296"/>
+      <c r="O15" s="296"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
     </row>
     <row r="16" customHeight="1" ht="21">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" customHeight="1" ht="21">
-      <c r="A17" s="16" t="s">
+      <c r="A16" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B16" s="263" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C16" s="318" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" customHeight="1" ht="51">
-      <c r="A18" s="16" t="s">
-        <v>54</v>
+      <c r="D16" s="318"/>
+      <c r="E16" s="318"/>
+      <c r="F16" s="318"/>
+      <c r="G16" s="300"/>
+      <c r="H16" s="291"/>
+      <c r="I16" s="291"/>
+      <c r="J16" s="291"/>
+      <c r="K16" s="291"/>
+      <c r="L16" s="291"/>
+      <c r="M16" s="291"/>
+      <c r="N16" s="291"/>
+      <c r="O16" s="291"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+    </row>
+    <row r="17" customHeight="1" ht="48">
+      <c r="A17" s="285" t="s">
+        <v>60</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B17" s="307" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="308" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="309"/>
+      <c r="E17" s="309"/>
+      <c r="F17" s="307"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="290"/>
+      <c r="J17" s="290"/>
+      <c r="K17" s="290"/>
+      <c r="L17" s="290"/>
+      <c r="M17" s="290"/>
+      <c r="N17" s="290"/>
+      <c r="O17" s="290"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+    </row>
+    <row r="18" customHeight="1" ht="146">
+      <c r="A18" s="226" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="242" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="D18" s="244"/>
+      <c r="E18" s="244"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
     </row>
     <row r="19" customHeight="1" ht="51">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="D19" s="244"/>
+      <c r="E19" s="244"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
     </row>
     <row r="20" customHeight="1" ht="51">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="242" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="245" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="247"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
     </row>
     <row r="21" customHeight="1" ht="51">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="242" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="C21" s="248"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
     </row>
     <row r="22" customHeight="1" ht="21">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="226" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="242" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" customHeight="1" ht="21">
-      <c r="A23" s="16" t="s">
+      <c r="C22" s="243"/>
+      <c r="D22" s="244"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="242"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+    </row>
+    <row r="23" customHeight="1" ht="43">
+      <c r="A23" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="242" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="C23" s="243"/>
+      <c r="D23" s="244"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
     </row>
     <row r="24" customHeight="1" ht="21">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="245" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="D24" s="246"/>
+      <c r="E24" s="246"/>
+      <c r="F24" s="247"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
     </row>
     <row r="25" customHeight="1" ht="21">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="242" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="C25" s="248"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
     </row>
     <row r="26" customHeight="1" ht="21">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="226" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="C26" s="248"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
     </row>
     <row r="27" customHeight="1" ht="21">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="226" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="242" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="C27" s="248"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
     </row>
     <row r="28" customHeight="1" ht="51">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="251"/>
+      <c r="F28" s="252"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
     </row>
     <row r="29" customHeight="1" ht="27">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="226" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="C29" s="243"/>
+      <c r="D29" s="244"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="242"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
     </row>
     <row r="30" customHeight="1" ht="51">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="226" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="C30" s="243"/>
+      <c r="D30" s="244"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
       <c r="R30" s="81"/>
     </row>
     <row r="31" customHeight="1" ht="21">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="259" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="C31" s="260"/>
+      <c r="D31" s="260"/>
+      <c r="E31" s="260"/>
+      <c r="F31" s="260"/>
+      <c r="G31" s="260"/>
+      <c r="H31" s="260"/>
+      <c r="I31" s="260"/>
+      <c r="J31" s="260"/>
+      <c r="K31" s="260"/>
+      <c r="L31" s="260"/>
+      <c r="M31" s="260"/>
+      <c r="N31" s="260"/>
+      <c r="O31" s="260"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
     </row>
     <row r="32" customHeight="1" ht="21">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="262" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="263" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
+      <c r="C32" s="264"/>
+      <c r="D32" s="264"/>
+      <c r="E32" s="264"/>
+      <c r="F32" s="264"/>
+      <c r="G32" s="264"/>
+      <c r="H32" s="264"/>
+      <c r="I32" s="264"/>
+      <c r="J32" s="264"/>
+      <c r="K32" s="264"/>
+      <c r="L32" s="264"/>
+      <c r="M32" s="264"/>
+      <c r="N32" s="264"/>
+      <c r="O32" s="264"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
     </row>
     <row r="33">
-      <c r="A33" s="193"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="195"/>
-      <c r="H33" s="195"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="195"/>
-      <c r="K33" s="195"/>
-      <c r="L33" s="195"/>
-      <c r="M33" s="195"/>
-      <c r="N33" s="195"/>
-      <c r="O33" s="195"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+      <c r="A33" s="261"/>
+      <c r="B33" s="261"/>
+      <c r="C33" s="261"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="261"/>
+      <c r="G33" s="261"/>
+      <c r="H33" s="261"/>
+      <c r="I33" s="261"/>
+      <c r="J33" s="261"/>
+      <c r="K33" s="261"/>
+      <c r="L33" s="261"/>
+      <c r="M33" s="261"/>
+      <c r="N33" s="261"/>
+      <c r="O33" s="261"/>
+      <c r="P33" s="120"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="120"/>
     </row>
     <row r="34">
-      <c r="A34" s="196"/>
-      <c r="B34" s="197"/>
-      <c r="C34" s="197"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="197"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="198"/>
-      <c r="H34" s="198"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="198"/>
-      <c r="K34" s="198"/>
-      <c r="L34" s="198"/>
-      <c r="M34" s="198"/>
-      <c r="N34" s="198"/>
-      <c r="O34" s="198"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="A34" s="120"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="120"/>
     </row>
     <row r="35">
-      <c r="A35" s="196"/>
-      <c r="B35" s="198"/>
-      <c r="C35" s="198"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198"/>
-      <c r="F35" s="198"/>
-      <c r="G35" s="198"/>
-      <c r="H35" s="198"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="198"/>
-      <c r="K35" s="198"/>
-      <c r="L35" s="198"/>
-      <c r="M35" s="198"/>
-      <c r="N35" s="198"/>
-      <c r="O35" s="198"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+      <c r="A35" s="120"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+      <c r="P35" s="120"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="120"/>
     </row>
     <row r="36">
-      <c r="A36" s="196"/>
-      <c r="B36" s="198"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="198"/>
-      <c r="F36" s="198"/>
-      <c r="G36" s="198"/>
-      <c r="H36" s="198"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="198"/>
-      <c r="K36" s="198"/>
-      <c r="L36" s="198"/>
-      <c r="M36" s="198"/>
-      <c r="N36" s="198"/>
-      <c r="O36" s="198"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
+      <c r="A36" s="120"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="120"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="120"/>
     </row>
     <row r="37">
-      <c r="A37" s="196"/>
-      <c r="B37" s="198"/>
-      <c r="C37" s="198"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="198"/>
-      <c r="F37" s="198"/>
-      <c r="G37" s="198"/>
-      <c r="H37" s="198"/>
-      <c r="I37" s="198"/>
-      <c r="J37" s="198"/>
-      <c r="K37" s="198"/>
-      <c r="L37" s="198"/>
-      <c r="M37" s="198"/>
-      <c r="N37" s="198"/>
-      <c r="O37" s="198"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
+      <c r="A37" s="120"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="120"/>
+      <c r="P37" s="120"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="120"/>
     </row>
     <row r="38">
-      <c r="A38" s="196"/>
-      <c r="B38" s="197"/>
-      <c r="C38" s="197"/>
-      <c r="D38" s="197"/>
-      <c r="E38" s="197"/>
-      <c r="F38" s="197"/>
-      <c r="G38" s="198"/>
-      <c r="H38" s="198"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="198"/>
-      <c r="K38" s="198"/>
-      <c r="L38" s="198"/>
-      <c r="M38" s="198"/>
-      <c r="N38" s="198"/>
-      <c r="O38" s="198"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
+      <c r="A38" s="120"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="120"/>
     </row>
     <row r="39">
-      <c r="A39" s="196"/>
-      <c r="B39" s="197"/>
-      <c r="C39" s="197"/>
-      <c r="D39" s="197"/>
-      <c r="E39" s="197"/>
-      <c r="F39" s="197"/>
-      <c r="G39" s="197"/>
-      <c r="H39" s="197"/>
-      <c r="I39" s="197"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="197"/>
-      <c r="L39" s="197"/>
-      <c r="M39" s="197"/>
-      <c r="N39" s="197"/>
-      <c r="O39" s="199"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="120"/>
+      <c r="K39" s="120"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="120"/>
+      <c r="N39" s="120"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="120"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="120"/>
     </row>
     <row r="40">
-      <c r="A40" s="200"/>
-      <c r="B40" s="198"/>
-      <c r="C40" s="198"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="198"/>
-      <c r="H40" s="198"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="198"/>
-      <c r="K40" s="198"/>
-      <c r="L40" s="198"/>
-      <c r="M40" s="198"/>
-      <c r="N40" s="198"/>
-      <c r="O40" s="198"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
+      <c r="A40" s="120"/>
+      <c r="B40" s="120"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
+      <c r="I40" s="120"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="120"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="120"/>
     </row>
     <row r="41">
-      <c r="A41" s="201"/>
-      <c r="B41" s="201"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="201"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="201"/>
-      <c r="I41" s="201"/>
-      <c r="J41" s="201"/>
-      <c r="K41" s="201"/>
-      <c r="L41" s="201"/>
-      <c r="M41" s="201"/>
-      <c r="N41" s="201"/>
-      <c r="O41" s="201"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
+      <c r="A41" s="120"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="120"/>
+      <c r="K41" s="120"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="120"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="120"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="120"/>
     </row>
     <row r="42">
-      <c r="A42" s="196"/>
-      <c r="B42" s="198"/>
-      <c r="C42" s="202"/>
-      <c r="D42" s="202"/>
-      <c r="E42" s="202"/>
-      <c r="F42" s="202"/>
-      <c r="G42" s="198"/>
-      <c r="H42" s="198"/>
-      <c r="I42" s="198"/>
-      <c r="J42" s="198"/>
-      <c r="K42" s="198"/>
-      <c r="L42" s="198"/>
-      <c r="M42" s="198"/>
-      <c r="N42" s="198"/>
-      <c r="O42" s="198"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
+      <c r="A42" s="120"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="120"/>
+      <c r="O42" s="120"/>
+      <c r="P42" s="120"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="120"/>
     </row>
     <row r="43">
-      <c r="A43" s="196"/>
-      <c r="B43" s="198"/>
-      <c r="C43" s="202"/>
-      <c r="D43" s="202"/>
-      <c r="E43" s="202"/>
-      <c r="F43" s="202"/>
-      <c r="G43" s="198"/>
-      <c r="H43" s="198"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="198"/>
-      <c r="K43" s="198"/>
-      <c r="L43" s="198"/>
-      <c r="M43" s="198"/>
-      <c r="N43" s="198"/>
-      <c r="O43" s="198"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="120"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="120"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
     </row>
     <row r="44">
-      <c r="A44" s="206"/>
-      <c r="B44" s="207"/>
-      <c r="C44" s="208"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="208"/>
-      <c r="F44" s="208"/>
-      <c r="G44" s="207"/>
-      <c r="H44" s="207"/>
-      <c r="I44" s="207"/>
-      <c r="J44" s="207"/>
-      <c r="K44" s="207"/>
-      <c r="L44" s="207"/>
-      <c r="M44" s="207"/>
-      <c r="N44" s="207"/>
-      <c r="O44" s="207"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
+      <c r="A44" s="120"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="120"/>
+      <c r="K44" s="120"/>
+      <c r="L44" s="120"/>
+      <c r="M44" s="120"/>
+      <c r="N44" s="120"/>
+      <c r="O44" s="120"/>
+      <c r="P44" s="120"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="120"/>
     </row>
     <row r="45">
-      <c r="A45" s="196"/>
-      <c r="B45" s="198"/>
-      <c r="C45" s="202"/>
-      <c r="D45" s="202"/>
-      <c r="E45" s="202"/>
-      <c r="F45" s="202"/>
-      <c r="G45" s="198"/>
-      <c r="H45" s="198"/>
-      <c r="I45" s="198"/>
-      <c r="J45" s="198"/>
-      <c r="K45" s="198"/>
-      <c r="L45" s="198"/>
-      <c r="M45" s="198"/>
-      <c r="N45" s="198"/>
-      <c r="O45" s="198"/>
-      <c r="P45" s="209"/>
-      <c r="Q45" s="209"/>
-      <c r="R45" s="210"/>
+      <c r="A45" s="120"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="120"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="120"/>
+      <c r="N45" s="120"/>
+      <c r="O45" s="120"/>
+      <c r="P45" s="120"/>
+      <c r="Q45" s="120"/>
+      <c r="R45" s="120"/>
       <c r="S45" s="210"/>
       <c r="T45" s="210"/>
       <c r="U45" s="210"/>
@@ -3487,24 +4427,24 @@
       <c r="AT45" s="210"/>
     </row>
     <row r="46">
-      <c r="A46" s="196"/>
-      <c r="B46" s="198"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="202"/>
-      <c r="E46" s="202"/>
-      <c r="F46" s="202"/>
-      <c r="G46" s="198"/>
-      <c r="H46" s="198"/>
-      <c r="I46" s="198"/>
-      <c r="J46" s="198"/>
-      <c r="K46" s="198"/>
-      <c r="L46" s="198"/>
-      <c r="M46" s="198"/>
-      <c r="N46" s="198"/>
-      <c r="O46" s="198"/>
-      <c r="P46" s="209"/>
-      <c r="Q46" s="209"/>
-      <c r="R46" s="210"/>
+      <c r="A46" s="120"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="120"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="120"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120"/>
       <c r="S46" s="210"/>
       <c r="T46" s="210"/>
       <c r="U46" s="210"/>
@@ -3535,24 +4475,24 @@
       <c r="AT46" s="210"/>
     </row>
     <row r="47">
-      <c r="A47" s="196"/>
-      <c r="B47" s="198"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
-      <c r="E47" s="202"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="198"/>
-      <c r="H47" s="198"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="198"/>
-      <c r="K47" s="198"/>
-      <c r="L47" s="198"/>
-      <c r="M47" s="198"/>
-      <c r="N47" s="198"/>
-      <c r="O47" s="198"/>
-      <c r="P47" s="209"/>
-      <c r="Q47" s="209"/>
-      <c r="R47" s="210"/>
+      <c r="A47" s="120"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="120"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="120"/>
+      <c r="Q47" s="120"/>
+      <c r="R47" s="120"/>
       <c r="S47" s="210"/>
       <c r="T47" s="210"/>
       <c r="U47" s="210"/>
@@ -3583,24 +4523,24 @@
       <c r="AT47" s="210"/>
     </row>
     <row r="48">
-      <c r="A48" s="203"/>
-      <c r="B48" s="204"/>
-      <c r="C48" s="204"/>
-      <c r="D48" s="204"/>
-      <c r="E48" s="204"/>
-      <c r="F48" s="204"/>
-      <c r="G48" s="204"/>
-      <c r="H48" s="204"/>
-      <c r="I48" s="204"/>
-      <c r="J48" s="204"/>
-      <c r="K48" s="204"/>
-      <c r="L48" s="204"/>
-      <c r="M48" s="204"/>
-      <c r="N48" s="204"/>
-      <c r="O48" s="205"/>
-      <c r="P48" s="209"/>
-      <c r="Q48" s="209"/>
-      <c r="R48" s="210"/>
+      <c r="A48" s="120"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
       <c r="S48" s="210"/>
       <c r="T48" s="210"/>
       <c r="U48" s="210"/>
@@ -26671,7 +27611,7 @@
       <c r="AT528" s="210"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="52">
     <mergeCell ref="A1:O6"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:O7"/>
@@ -26696,7 +27636,9 @@
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="C13:O13"/>
     <mergeCell ref="C14:O14"/>
-    <mergeCell ref="A15:O16"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:O16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="G17:O17"/>
     <mergeCell ref="C18:F18"/>

--- a/amk-main-public/vimuTKP.xlsx
+++ b/amk-main-public/vimuTKP.xlsx
@@ -216,12 +216,37 @@
   <si>
     <t>1)Базовый набор функций 2)Передача информации о положении выходного звена привода посредством токового сигнала (4–20 мА)  3)Передача текущего значения движущего момента на выходном звене привода посредством токового сигнала (4–20 мА).  4) Аналоговое управление приводом — прием от дистанционного пульта и отработка токового сигнала (4–20 мА) задания положения выходного звена привода с контролем наличия связи  5) Диагностирование отказов опциональных модулей.  6)Автоматический выбор активного интерфейса дистанционного управления.  /Дополнительная плата: 1)Базовый набор функций 2)Передача информации о положении выходного звена привода посредством токового сигнала (4–20 мА)  3)Передача текущего значения движущего момента на выходном звене привода посредством токового сигнала (4–20 мА).  4) Аналоговое управление приводом — прием от дистанционного пульта и отработка токового сигнала (4–20 мА) задания положения выходного звена привода с контролем наличия связи  5) Диагностирование отказов опциональных модулей.  6)Автоматический выбор активного интерфейса дистанционного управления.</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Внутренний номер ТКП (совпадает с номером ОЛ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВАШ ПЕРСОНАЛЬНЫЙ МЕНЕДЖЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Организация - Заказчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Проект (необязательная ячейка): </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Коммерческая часть</t>
+  </si>
+  <si>
+    <t>Взрывозащита / Рудничное / АЭС и тд</t>
+  </si>
+  <si>
+    <t>Дистанционный 
+указатель положения / Датчики обратной связи</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +418,19 @@
       <color rgb="FF000000"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2014,7 +2052,7 @@
       <alignment/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3019,6 +3057,24 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3064,7 +3120,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3377,8 +3433,8 @@
   </sheetPr>
   <dimension ref="A1:T204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="G18" sqref="G18:O18" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="M8" sqref="M8" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3406,124 +3462,124 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="33">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="320" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
+      <c r="N1" s="321"/>
+      <c r="O1" s="321"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" customHeight="1" ht="18">
-      <c r="A2" s="24"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="A2" s="322"/>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
+      <c r="O2" s="321"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" customHeight="1" ht="18">
-      <c r="A3" s="24"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
+      <c r="A3" s="322"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="321"/>
+      <c r="M3" s="321"/>
+      <c r="N3" s="321"/>
+      <c r="O3" s="321"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" customHeight="1" ht="18">
-      <c r="A4" s="24"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
+      <c r="A4" s="322"/>
+      <c r="B4" s="321"/>
+      <c r="C4" s="321"/>
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="321"/>
+      <c r="H4" s="321"/>
+      <c r="I4" s="321"/>
+      <c r="J4" s="321"/>
+      <c r="K4" s="321"/>
+      <c r="L4" s="321"/>
+      <c r="M4" s="321"/>
+      <c r="N4" s="321"/>
+      <c r="O4" s="321"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" customHeight="1" ht="18">
-      <c r="A5" s="24"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
+      <c r="A5" s="322"/>
+      <c r="B5" s="321"/>
+      <c r="C5" s="321"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="321"/>
+      <c r="F5" s="321"/>
+      <c r="G5" s="321"/>
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="321"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="321"/>
+      <c r="M5" s="321"/>
+      <c r="N5" s="321"/>
+      <c r="O5" s="321"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" customHeight="1" ht="0">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="A6" s="323"/>
+      <c r="B6" s="324"/>
+      <c r="C6" s="324"/>
+      <c r="D6" s="324"/>
+      <c r="E6" s="324"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="324"/>
+      <c r="L6" s="324"/>
+      <c r="M6" s="324"/>
+      <c r="N6" s="324"/>
+      <c r="O6" s="324"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" customHeight="1" ht="21">
       <c r="A7" s="27" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="B7" s="213"/>
       <c r="C7" s="213"/>
@@ -3544,25 +3600,25 @@
     </row>
     <row r="8" customHeight="1" ht="21">
       <c r="A8" s="27" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B8" s="214"/>
       <c r="C8" s="214"/>
       <c r="D8" s="215"/>
-      <c r="E8" s="216" t="s">
+      <c r="E8" s="319" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="72"/>
       <c r="G8" s="72"/>
       <c r="H8" s="72"/>
-      <c r="I8" s="216" t="s">
+      <c r="I8" s="319" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="72"/>
       <c r="K8" s="72"/>
       <c r="L8" s="72"/>
-      <c r="M8" s="216" t="s">
-        <v>5</v>
+      <c r="M8" s="319" t="s">
+        <v>71</v>
       </c>
       <c r="N8" s="72"/>
       <c r="O8" s="72"/>
@@ -3571,7 +3627,7 @@
     </row>
     <row r="9" customHeight="1" ht="21">
       <c r="A9" s="27" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B9" s="215"/>
       <c r="C9" s="72"/>
@@ -3593,7 +3649,7 @@
     </row>
     <row r="10" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A10" s="37" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B10" s="217"/>
       <c r="C10" s="72"/>
@@ -3615,7 +3671,7 @@
     </row>
     <row r="11" customHeight="1" ht="39" customFormat="1" s="3">
       <c r="A11" s="218" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B11" s="219"/>
       <c r="C11" s="220" t="s">
@@ -3742,7 +3798,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="318" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="D16" s="318"/>
       <c r="E16" s="318"/>
@@ -3784,7 +3840,7 @@
       <c r="P17" s="79"/>
       <c r="Q17" s="79"/>
     </row>
-    <row r="18" customHeight="1" ht="146">
+    <row r="18" customHeight="1" ht="144">
       <c r="A18" s="226" t="s">
         <v>61</v>
       </c>
@@ -3905,7 +3961,7 @@
       <c r="P22" s="79"/>
       <c r="Q22" s="79"/>
     </row>
-    <row r="23" customHeight="1" ht="43">
+    <row r="23" customHeight="1" ht="42">
       <c r="A23" s="226" t="s">
         <v>55</v>
       </c>
@@ -4027,7 +4083,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="242" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C28" s="250"/>
       <c r="D28" s="251"/>
